--- a/DSU_FOP_Data/Shivarathri Hackthon/timestamps.xlsx
+++ b/DSU_FOP_Data/Shivarathri Hackthon/timestamps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="991">
   <si>
     <t>Jeevan Kumar A Das</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Activity2: Write the HSPC Program 2007. Problem:5 Transitivity Detector</t>
   </si>
   <si>
-    <t>1:01:09</t>
-  </si>
-  <si>
     <t>2021-03-13T07:19:41.335Z</t>
   </si>
   <si>
@@ -133,9 +130,6 @@
     <t>Activity1: Write the HSPC Program 2007. Problem:1 Rectengle Area</t>
   </si>
   <si>
-    <t>1:10:52</t>
-  </si>
-  <si>
     <t>2021-03-11T10:29:09.150Z</t>
   </si>
   <si>
@@ -238,9 +232,6 @@
     <t>Ishika Giroti</t>
   </si>
   <si>
-    <t>0:42:53</t>
-  </si>
-  <si>
     <t>2021-03-13T07:18:59.563Z</t>
   </si>
   <si>
@@ -304,9 +295,6 @@
     <t>2021-03-11T07:18:23.336Z</t>
   </si>
   <si>
-    <t>0:36:13</t>
-  </si>
-  <si>
     <t>2021-03-11T11:01:54.133Z</t>
   </si>
   <si>
@@ -358,9 +346,6 @@
     <t>ENG19CS0111_HARISH B</t>
   </si>
   <si>
-    <t>0:00:00</t>
-  </si>
-  <si>
     <t>2021-03-12T04:59:15.677Z</t>
   </si>
   <si>
@@ -373,9 +358,6 @@
     <t>2021-03-11T07:17:31.821Z</t>
   </si>
   <si>
-    <t>0:55:35</t>
-  </si>
-  <si>
     <t>2021-03-11T06:52:54.437Z</t>
   </si>
   <si>
@@ -454,9 +436,6 @@
     <t>ENG19CT0024 SHIVANSH</t>
   </si>
   <si>
-    <t>0:18:23</t>
-  </si>
-  <si>
     <t>2021-03-11T19:01:29.318Z</t>
   </si>
   <si>
@@ -487,9 +466,6 @@
     <t>2021-03-11T07:19:42.016Z</t>
   </si>
   <si>
-    <t>0:03:58</t>
-  </si>
-  <si>
     <t>2021-03-11T16:12:02.462Z</t>
   </si>
   <si>
@@ -511,9 +487,6 @@
     <t>ENG19CS0263 RONALD</t>
   </si>
   <si>
-    <t>0:15:06</t>
-  </si>
-  <si>
     <t>2021-03-11T17:24:30.195Z</t>
   </si>
   <si>
@@ -541,9 +514,6 @@
     <t>2021-03-11T07:17:32.162Z</t>
   </si>
   <si>
-    <t>1:01:16</t>
-  </si>
-  <si>
     <t>2021-03-11T08:35:42.698Z</t>
   </si>
   <si>
@@ -634,9 +604,6 @@
     <t>ENG19CS0093 GV SAIRAM</t>
   </si>
   <si>
-    <t>0:55:31</t>
-  </si>
-  <si>
     <t>2021-03-11T15:43:37.436Z</t>
   </si>
   <si>
@@ -718,9 +685,6 @@
     <t>2021-03-11T07:17:16.301Z</t>
   </si>
   <si>
-    <t>0:55:19</t>
-  </si>
-  <si>
     <t>2021-03-11T10:07:02.903Z</t>
   </si>
   <si>
@@ -817,9 +781,6 @@
     <t>ENG19CS0117_ Harshitha Reddy</t>
   </si>
   <si>
-    <t>0:45:14</t>
-  </si>
-  <si>
     <t>2021-03-11T13:55:42.204Z</t>
   </si>
   <si>
@@ -874,9 +835,6 @@
     <t>2021-03-11T07:19:27.575Z</t>
   </si>
   <si>
-    <t>0:03:02</t>
-  </si>
-  <si>
     <t>2021-03-11T09:39:18.178Z</t>
   </si>
   <si>
@@ -889,9 +847,6 @@
     <t>Juvvi Arun Sai-ENG19CS0132</t>
   </si>
   <si>
-    <t>0:09:03</t>
-  </si>
-  <si>
     <t>2021-03-11T13:36:20.900Z</t>
   </si>
   <si>
@@ -913,9 +868,6 @@
     <t>2021-03-11T07:19:33.264Z</t>
   </si>
   <si>
-    <t>0:03:09</t>
-  </si>
-  <si>
     <t>2021-03-11T15:41:35.340Z</t>
   </si>
   <si>
@@ -940,9 +892,6 @@
     <t>2021-03-11T07:17:23.630Z</t>
   </si>
   <si>
-    <t>0:03:04</t>
-  </si>
-  <si>
     <t>2021-03-11T10:42:13.793Z</t>
   </si>
   <si>
@@ -955,9 +904,6 @@
     <t>ENG19CS0253 Ravikumar K</t>
   </si>
   <si>
-    <t>0:36:08</t>
-  </si>
-  <si>
     <t>2021-03-11T11:04:51.982Z</t>
   </si>
   <si>
@@ -1003,9 +949,6 @@
     <t>2021-03-11T07:17:49.297Z</t>
   </si>
   <si>
-    <t>0:27:08</t>
-  </si>
-  <si>
     <t>2021-03-11T06:41:26.224Z</t>
   </si>
   <si>
@@ -1045,9 +988,6 @@
     <t>ENG19CT0010. DHARSHAN K</t>
   </si>
   <si>
-    <t>0:39:54</t>
-  </si>
-  <si>
     <t>2021-03-11T11:04:33.575Z</t>
   </si>
   <si>
@@ -1102,9 +1042,6 @@
     <t>2021-03-11T07:18:47.338Z</t>
   </si>
   <si>
-    <t>0:18:04</t>
-  </si>
-  <si>
     <t>2021-03-11T06:55:08.943Z</t>
   </si>
   <si>
@@ -1135,9 +1072,6 @@
     <t>ENG19CS0296 SHISHIRA S</t>
   </si>
   <si>
-    <t>0:33:39</t>
-  </si>
-  <si>
     <t>2021-03-11T11:04:07.400Z</t>
   </si>
   <si>
@@ -1180,9 +1114,6 @@
     <t>2021-03-11T07:19:29.705Z</t>
   </si>
   <si>
-    <t>1:35:06</t>
-  </si>
-  <si>
     <t>2021-04-19T16:33:15.220Z</t>
   </si>
   <si>
@@ -1300,9 +1231,6 @@
     <t>ENG19CS0329 SWETHA G</t>
   </si>
   <si>
-    <t>0:52:18</t>
-  </si>
-  <si>
     <t>2021-03-11T11:01:24.139Z</t>
   </si>
   <si>
@@ -1384,9 +1312,6 @@
     <t>2021-03-11T07:19:45.165Z</t>
   </si>
   <si>
-    <t>1:29:49</t>
-  </si>
-  <si>
     <t>2021-03-11T07:23:42.362Z</t>
   </si>
   <si>
@@ -1501,9 +1426,6 @@
     <t>Gagan N S</t>
   </si>
   <si>
-    <t>0:06:09</t>
-  </si>
-  <si>
     <t>2021-03-11T10:35:43.493Z</t>
   </si>
   <si>
@@ -1516,9 +1438,6 @@
     <t>2021-03-11T10:21:35.521Z</t>
   </si>
   <si>
-    <t>1:53:46</t>
-  </si>
-  <si>
     <t>2021-03-11T10:12:21.495Z</t>
   </si>
   <si>
@@ -1666,9 +1585,6 @@
     <t>2021-03-11T07:18:59.473Z</t>
   </si>
   <si>
-    <t>1:17:26</t>
-  </si>
-  <si>
     <t>2021-03-11T06:56:09.437Z</t>
   </si>
   <si>
@@ -1756,9 +1672,6 @@
     <t>ENG19CS0273 Sagar Metri</t>
   </si>
   <si>
-    <t>0:03:07</t>
-  </si>
-  <si>
     <t>2021-03-11T10:21:35.187Z</t>
   </si>
   <si>
@@ -1771,9 +1684,6 @@
     <t>2021-03-11T07:20:43.165Z</t>
   </si>
   <si>
-    <t>0:33:09</t>
-  </si>
-  <si>
     <t>2021-03-11T07:05:00.532Z</t>
   </si>
   <si>
@@ -1840,9 +1750,6 @@
     <t>2021-03-11T07:19:46.105Z</t>
   </si>
   <si>
-    <t>1:02:08</t>
-  </si>
-  <si>
     <t>2021-03-11T07:53:41.013Z</t>
   </si>
   <si>
@@ -1942,9 +1849,6 @@
     <t>2021-03-11T07:21:19.614Z</t>
   </si>
   <si>
-    <t>0:12:04</t>
-  </si>
-  <si>
     <t>2021-03-11T07:15:05.962Z</t>
   </si>
   <si>
@@ -1972,9 +1876,6 @@
     <t>2021-03-11T07:21:09.214Z</t>
   </si>
   <si>
-    <t>0:36:09</t>
-  </si>
-  <si>
     <t>2021-03-11T06:32:30.947Z</t>
   </si>
   <si>
@@ -2044,9 +1945,6 @@
     <t>2021-03-11T07:19:54.971Z</t>
   </si>
   <si>
-    <t>0:39:50</t>
-  </si>
-  <si>
     <t>2021-03-11T08:29:36.501Z</t>
   </si>
   <si>
@@ -2110,9 +2008,6 @@
     <t>2021-03-11T07:19:48.720Z</t>
   </si>
   <si>
-    <t>0:59:45</t>
-  </si>
-  <si>
     <t>2021-03-11T05:57:04.974Z</t>
   </si>
   <si>
@@ -2197,9 +2092,6 @@
     <t>2021-03-11T07:19:40.859Z</t>
   </si>
   <si>
-    <t>1:05:06</t>
-  </si>
-  <si>
     <t>2021-03-11T10:43:53.412Z</t>
   </si>
   <si>
@@ -2314,9 +2206,6 @@
     <t>2021-03-11T07:19:18.469Z</t>
   </si>
   <si>
-    <t>0:43:09</t>
-  </si>
-  <si>
     <t>2021-03-11T07:30:03.121Z</t>
   </si>
   <si>
@@ -2383,9 +2272,6 @@
     <t>2021-03-11T07:19:13.757Z</t>
   </si>
   <si>
-    <t>0:42:54</t>
-  </si>
-  <si>
     <t>2021-03-11T05:50:23.667Z</t>
   </si>
   <si>
@@ -2452,9 +2338,6 @@
     <t>2021-03-11T07:18:39.027Z</t>
   </si>
   <si>
-    <t>1:35:19</t>
-  </si>
-  <si>
     <t>2021-03-11T06:52:14.027Z</t>
   </si>
   <si>
@@ -2575,9 +2458,6 @@
     <t>2021-03-11T07:18:28.514Z</t>
   </si>
   <si>
-    <t>0:15:27</t>
-  </si>
-  <si>
     <t>2021-03-11T05:21:26.985Z</t>
   </si>
   <si>
@@ -2620,9 +2500,6 @@
     <t>2021-03-11T07:17:59.810Z</t>
   </si>
   <si>
-    <t>1:01:33</t>
-  </si>
-  <si>
     <t>2021-03-11T07:13:42.759Z</t>
   </si>
   <si>
@@ -2698,9 +2575,6 @@
     <t>2021-03-11T07:17:57.667Z</t>
   </si>
   <si>
-    <t>0:58:39</t>
-  </si>
-  <si>
     <t>2021-03-11T10:53:38.791Z</t>
   </si>
   <si>
@@ -2788,18 +2662,12 @@
     <t>Nakshatra Singh</t>
   </si>
   <si>
-    <t>0:00:01</t>
-  </si>
-  <si>
     <t>2021-03-11T07:17:45.373Z</t>
   </si>
   <si>
     <t>2021-03-11T07:17:44.591Z</t>
   </si>
   <si>
-    <t>0:43:02</t>
-  </si>
-  <si>
     <t>2021-03-11T06:43:01.454Z</t>
   </si>
   <si>
@@ -2863,9 +2731,6 @@
     <t>2021-03-11T07:17:42.556Z</t>
   </si>
   <si>
-    <t>0:52:31</t>
-  </si>
-  <si>
     <t>2021-03-11T05:42:30.534Z</t>
   </si>
   <si>
@@ -2941,9 +2806,6 @@
     <t>2021-03-11T07:17:35.450Z</t>
   </si>
   <si>
-    <t>0:48:45</t>
-  </si>
-  <si>
     <t>2021-03-11T06:31:52.028Z</t>
   </si>
   <si>
@@ -3007,9 +2869,6 @@
     <t>2021-03-11T07:17:35.391Z</t>
   </si>
   <si>
-    <t>0:00:04</t>
-  </si>
-  <si>
     <t>2021-03-11T06:41:38.969Z</t>
   </si>
   <si>
@@ -3022,9 +2881,6 @@
     <t>2021-03-11T07:17:24.748Z</t>
   </si>
   <si>
-    <t>0:00:02</t>
-  </si>
-  <si>
     <t>2021-03-11T07:06:08.218Z</t>
   </si>
   <si>
@@ -3046,9 +2902,6 @@
     <t>2021-03-11T07:17:16.951Z</t>
   </si>
   <si>
-    <t>0:12:18</t>
-  </si>
-  <si>
     <t>2021-03-11T06:09:26.343Z</t>
   </si>
   <si>
@@ -3074,9 +2927,6 @@
   </si>
   <si>
     <t>2021-03-11T07:17:15.398Z</t>
-  </si>
-  <si>
-    <t>0:48:13</t>
   </si>
   <si>
     <t>2021-03-11T09:50:20.623Z</t>
@@ -3468,13 +3318,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV88"/>
+  <dimension ref="A1:AU88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:37">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3586,3683 +3436,3419 @@
       <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38">
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>43</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>44</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>45</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>46</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>47</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>48</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>49</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>50</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>51</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>53</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>54</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>55</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>56</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>57</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>58</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>59</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>60</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>62</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>63</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>64</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>65</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>66</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>67</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>68</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>69</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>70</v>
       </c>
-      <c r="AI2" t="s">
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" t="s">
         <v>71</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38">
-      <c r="A3" t="s">
-        <v>73</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
         <v>74</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>75</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>76</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>77</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>78</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>79</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>80</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>81</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>82</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>83</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>84</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>85</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>86</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>87</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>88</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>89</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>90</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>91</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>92</v>
       </c>
-      <c r="V3" t="s">
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
         <v>93</v>
       </c>
-      <c r="W3" t="s">
+      <c r="D4" t="s">
         <v>94</v>
       </c>
-      <c r="X3" t="s">
+      <c r="E4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:38">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>96</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>97</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>98</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>99</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>100</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>101</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>102</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>103</v>
       </c>
-      <c r="K4" t="s">
+      <c r="N4" t="s">
         <v>104</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>105</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>106</v>
       </c>
-      <c r="N4" t="s">
+      <c r="Q4" t="s">
         <v>107</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
         <v>108</v>
       </c>
-      <c r="P4" t="s">
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5" t="s">
         <v>109</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>110</v>
-      </c>
-      <c r="R4" t="s">
-        <v>111</v>
-      </c>
-      <c r="S4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38">
-      <c r="A5" t="s">
-        <v>113</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
         <v>114</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>115</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>116</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>117</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="6" spans="1:38">
-      <c r="A6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="H6" t="s">
         <v>119</v>
       </c>
-      <c r="D6" t="s">
+      <c r="I6" t="s">
         <v>120</v>
       </c>
-      <c r="E6" t="s">
+      <c r="J6" t="s">
         <v>121</v>
       </c>
-      <c r="F6" t="s">
+      <c r="K6" t="s">
         <v>122</v>
       </c>
-      <c r="G6" t="s">
+      <c r="L6" t="s">
         <v>123</v>
       </c>
-      <c r="H6" t="s">
+      <c r="M6" t="s">
         <v>124</v>
       </c>
-      <c r="I6" t="s">
+      <c r="N6" t="s">
         <v>125</v>
       </c>
-      <c r="J6" t="s">
+      <c r="O6" t="s">
         <v>126</v>
       </c>
-      <c r="K6" t="s">
+      <c r="P6" t="s">
         <v>127</v>
       </c>
-      <c r="L6" t="s">
+      <c r="Q6" t="s">
         <v>128</v>
       </c>
-      <c r="M6" t="s">
+      <c r="R6" t="s">
         <v>129</v>
       </c>
-      <c r="N6" t="s">
+      <c r="S6" t="s">
         <v>130</v>
       </c>
-      <c r="O6" t="s">
+      <c r="T6" t="s">
         <v>131</v>
       </c>
-      <c r="P6" t="s">
+      <c r="U6" t="s">
         <v>132</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="V6" t="s">
         <v>133</v>
       </c>
-      <c r="R6" t="s">
+      <c r="W6" t="s">
         <v>134</v>
       </c>
-      <c r="S6" t="s">
+      <c r="X6" t="s">
         <v>135</v>
       </c>
-      <c r="T6" t="s">
+      <c r="Y6" t="s">
         <v>136</v>
       </c>
-      <c r="U6" t="s">
+      <c r="Z6" t="s">
         <v>137</v>
       </c>
-      <c r="V6" t="s">
+      <c r="AA6" t="s">
         <v>138</v>
       </c>
-      <c r="W6" t="s">
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" t="s">
         <v>139</v>
-      </c>
-      <c r="X6" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38">
-      <c r="A7" t="s">
-        <v>145</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I7" t="s">
         <v>146</v>
       </c>
-      <c r="D7" t="s">
+      <c r="J7" t="s">
         <v>147</v>
       </c>
-      <c r="E7" t="s">
+      <c r="K7" t="s">
         <v>148</v>
       </c>
-      <c r="F7" t="s">
+      <c r="L7" t="s">
         <v>149</v>
       </c>
-      <c r="G7" t="s">
+    </row>
+    <row r="8" spans="1:37">
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
         <v>150</v>
       </c>
-      <c r="H7" t="s">
+      <c r="D8" t="s">
         <v>151</v>
       </c>
-      <c r="I7" t="s">
+      <c r="E8" t="s">
         <v>152</v>
       </c>
-      <c r="J7" t="s">
+      <c r="F8" t="s">
         <v>153</v>
       </c>
-      <c r="K7" t="s">
+      <c r="G8" t="s">
         <v>154</v>
       </c>
-      <c r="L7" t="s">
+      <c r="H8" t="s">
         <v>155</v>
       </c>
-      <c r="M7" t="s">
+    </row>
+    <row r="9" spans="1:37">
+      <c r="A9" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38">
-      <c r="A8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E8" t="s">
-        <v>159</v>
-      </c>
-      <c r="F8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H8" t="s">
-        <v>162</v>
-      </c>
-      <c r="I8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38">
-      <c r="A9" t="s">
-        <v>164</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K9" t="s">
         <v>165</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
         <v>166</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D10" t="s">
         <v>167</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E10" t="s">
         <v>168</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F10" t="s">
         <v>169</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G10" t="s">
         <v>170</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H10" t="s">
         <v>171</v>
       </c>
-      <c r="J9" t="s">
+      <c r="I10" t="s">
         <v>172</v>
       </c>
-      <c r="K9" t="s">
+      <c r="J10" t="s">
         <v>173</v>
       </c>
-      <c r="L9" t="s">
+      <c r="K10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="10" spans="1:38">
-      <c r="A10" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="L10" t="s">
         <v>175</v>
       </c>
-      <c r="D10" t="s">
+      <c r="M10" t="s">
         <v>176</v>
       </c>
-      <c r="E10" t="s">
+      <c r="N10" t="s">
         <v>177</v>
       </c>
-      <c r="F10" t="s">
+      <c r="O10" t="s">
         <v>178</v>
       </c>
-      <c r="G10" t="s">
+      <c r="P10" t="s">
         <v>179</v>
       </c>
-      <c r="H10" t="s">
+      <c r="Q10" t="s">
         <v>180</v>
       </c>
-      <c r="I10" t="s">
+      <c r="R10" t="s">
         <v>181</v>
       </c>
-      <c r="J10" t="s">
+      <c r="S10" t="s">
         <v>182</v>
       </c>
-      <c r="K10" t="s">
+      <c r="T10" t="s">
         <v>183</v>
       </c>
-      <c r="L10" t="s">
+      <c r="U10" t="s">
         <v>184</v>
       </c>
-      <c r="M10" t="s">
+      <c r="V10" t="s">
         <v>185</v>
       </c>
-      <c r="N10" t="s">
+      <c r="W10" t="s">
         <v>186</v>
       </c>
-      <c r="O10" t="s">
+      <c r="X10" t="s">
         <v>187</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Y10" t="s">
         <v>188</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Z10" t="s">
         <v>189</v>
       </c>
-      <c r="R10" t="s">
+      <c r="AA10" t="s">
         <v>190</v>
       </c>
-      <c r="S10" t="s">
+      <c r="AB10" t="s">
         <v>191</v>
       </c>
-      <c r="T10" t="s">
+      <c r="AC10" t="s">
         <v>192</v>
       </c>
-      <c r="U10" t="s">
+      <c r="AD10" t="s">
         <v>193</v>
       </c>
-      <c r="V10" t="s">
+      <c r="AE10" t="s">
         <v>194</v>
       </c>
-      <c r="W10" t="s">
+    </row>
+    <row r="11" spans="1:37">
+      <c r="A11" t="s">
         <v>195</v>
-      </c>
-      <c r="X10" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>202</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38">
-      <c r="A11" t="s">
-        <v>205</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G11" t="s">
+        <v>200</v>
+      </c>
+      <c r="H11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I11" t="s">
+        <v>202</v>
+      </c>
+      <c r="J11" t="s">
+        <v>203</v>
+      </c>
+      <c r="K11" t="s">
+        <v>204</v>
+      </c>
+      <c r="L11" t="s">
+        <v>205</v>
+      </c>
+      <c r="M11" t="s">
         <v>206</v>
       </c>
-      <c r="D11" t="s">
+      <c r="N11" t="s">
         <v>207</v>
       </c>
-      <c r="E11" t="s">
+      <c r="O11" t="s">
         <v>208</v>
       </c>
-      <c r="F11" t="s">
+      <c r="P11" t="s">
         <v>209</v>
       </c>
-      <c r="G11" t="s">
+      <c r="Q11" t="s">
         <v>210</v>
       </c>
-      <c r="H11" t="s">
+      <c r="R11" t="s">
         <v>211</v>
       </c>
-      <c r="I11" t="s">
+      <c r="S11" t="s">
         <v>212</v>
       </c>
-      <c r="J11" t="s">
+      <c r="T11" t="s">
         <v>213</v>
       </c>
-      <c r="K11" t="s">
+      <c r="U11" t="s">
         <v>214</v>
       </c>
-      <c r="L11" t="s">
+      <c r="V11" t="s">
         <v>215</v>
       </c>
-      <c r="M11" t="s">
+      <c r="W11" t="s">
         <v>216</v>
       </c>
-      <c r="N11" t="s">
+      <c r="X11" t="s">
         <v>217</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Y11" t="s">
         <v>218</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Z11" t="s">
         <v>219</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="AA11" t="s">
         <v>220</v>
       </c>
-      <c r="R11" t="s">
+      <c r="AB11" t="s">
         <v>221</v>
       </c>
-      <c r="S11" t="s">
+      <c r="AC11" t="s">
         <v>222</v>
       </c>
-      <c r="T11" t="s">
+    </row>
+    <row r="12" spans="1:37">
+      <c r="A12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
         <v>223</v>
       </c>
-      <c r="U11" t="s">
+      <c r="D12" t="s">
         <v>224</v>
       </c>
-      <c r="V11" t="s">
+      <c r="E12" t="s">
         <v>225</v>
       </c>
-      <c r="W11" t="s">
+      <c r="F12" t="s">
         <v>226</v>
       </c>
-      <c r="X11" t="s">
+      <c r="G12" t="s">
         <v>227</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="H12" t="s">
         <v>228</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="I12" t="s">
         <v>229</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="J12" t="s">
         <v>230</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="K12" t="s">
         <v>231</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="L12" t="s">
         <v>232</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="M12" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="12" spans="1:38">
-      <c r="A12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="N12" t="s">
         <v>234</v>
       </c>
-      <c r="D12" t="s">
+      <c r="O12" t="s">
         <v>235</v>
       </c>
-      <c r="E12" t="s">
+      <c r="P12" t="s">
         <v>236</v>
       </c>
-      <c r="F12" t="s">
+      <c r="Q12" t="s">
         <v>237</v>
       </c>
-      <c r="G12" t="s">
+      <c r="R12" t="s">
         <v>238</v>
       </c>
-      <c r="H12" t="s">
+      <c r="S12" t="s">
         <v>239</v>
       </c>
-      <c r="I12" t="s">
+      <c r="T12" t="s">
         <v>240</v>
       </c>
-      <c r="J12" t="s">
+      <c r="U12" t="s">
         <v>241</v>
       </c>
-      <c r="K12" t="s">
+      <c r="V12" t="s">
         <v>242</v>
       </c>
-      <c r="L12" t="s">
+      <c r="W12" t="s">
         <v>243</v>
       </c>
-      <c r="M12" t="s">
+      <c r="X12" t="s">
         <v>244</v>
       </c>
-      <c r="N12" t="s">
+      <c r="Y12" t="s">
         <v>245</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Z12" t="s">
         <v>246</v>
       </c>
-      <c r="P12" t="s">
+      <c r="AA12" t="s">
         <v>247</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="AB12" t="s">
         <v>248</v>
       </c>
-      <c r="R12" t="s">
+      <c r="AC12" t="s">
         <v>249</v>
       </c>
-      <c r="S12" t="s">
+      <c r="AD12" t="s">
         <v>250</v>
       </c>
-      <c r="T12" t="s">
+      <c r="AE12" t="s">
         <v>251</v>
       </c>
-      <c r="U12" t="s">
+      <c r="AF12" t="s">
         <v>252</v>
       </c>
-      <c r="V12" t="s">
+      <c r="AG12" t="s">
         <v>253</v>
       </c>
-      <c r="W12" t="s">
+    </row>
+    <row r="13" spans="1:37">
+      <c r="A13" t="s">
         <v>254</v>
-      </c>
-      <c r="X12" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>256</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>258</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>259</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>260</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>261</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>262</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>263</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>264</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38">
-      <c r="A13" t="s">
-        <v>266</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E13" t="s">
+        <v>257</v>
+      </c>
+      <c r="F13" t="s">
+        <v>258</v>
+      </c>
+      <c r="G13" t="s">
+        <v>259</v>
+      </c>
+      <c r="H13" t="s">
+        <v>260</v>
+      </c>
+      <c r="I13" t="s">
+        <v>261</v>
+      </c>
+      <c r="J13" t="s">
+        <v>262</v>
+      </c>
+      <c r="K13" t="s">
+        <v>263</v>
+      </c>
+      <c r="L13" t="s">
+        <v>264</v>
+      </c>
+      <c r="M13" t="s">
+        <v>265</v>
+      </c>
+      <c r="N13" t="s">
+        <v>266</v>
+      </c>
+      <c r="O13" t="s">
         <v>267</v>
       </c>
-      <c r="D13" t="s">
+      <c r="P13" t="s">
         <v>268</v>
       </c>
-      <c r="E13" t="s">
+      <c r="Q13" t="s">
         <v>269</v>
       </c>
-      <c r="F13" t="s">
+      <c r="R13" t="s">
         <v>270</v>
       </c>
-      <c r="G13" t="s">
+      <c r="S13" t="s">
         <v>271</v>
       </c>
-      <c r="H13" t="s">
+      <c r="T13" t="s">
         <v>272</v>
       </c>
-      <c r="I13" t="s">
+    </row>
+    <row r="14" spans="1:37">
+      <c r="A14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
         <v>273</v>
       </c>
-      <c r="J13" t="s">
+      <c r="D14" t="s">
         <v>274</v>
       </c>
-      <c r="K13" t="s">
+      <c r="E14" t="s">
         <v>275</v>
       </c>
-      <c r="L13" t="s">
+    </row>
+    <row r="15" spans="1:37">
+      <c r="A15" t="s">
         <v>276</v>
-      </c>
-      <c r="M13" t="s">
-        <v>277</v>
-      </c>
-      <c r="N13" t="s">
-        <v>278</v>
-      </c>
-      <c r="O13" t="s">
-        <v>279</v>
-      </c>
-      <c r="P13" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>281</v>
-      </c>
-      <c r="R13" t="s">
-        <v>282</v>
-      </c>
-      <c r="S13" t="s">
-        <v>283</v>
-      </c>
-      <c r="T13" t="s">
-        <v>284</v>
-      </c>
-      <c r="U13" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38">
-      <c r="A14" t="s">
-        <v>266</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>286</v>
-      </c>
-      <c r="D14" t="s">
-        <v>287</v>
-      </c>
-      <c r="E14" t="s">
-        <v>288</v>
-      </c>
-      <c r="F14" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38">
-      <c r="A15" t="s">
-        <v>290</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D15" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="E15" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="F15" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="G15" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="H15" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="I15" t="s">
-        <v>297</v>
-      </c>
-      <c r="J15" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37">
       <c r="A16" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="D16" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="E16" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="F16" t="s">
-        <v>302</v>
-      </c>
-      <c r="G16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="17" spans="1:48">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:47">
       <c r="A17" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D17" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="E17" t="s">
-        <v>306</v>
-      </c>
-      <c r="F17" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:48">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:47">
       <c r="A18" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="D18" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="E18" t="s">
-        <v>310</v>
-      </c>
-      <c r="F18" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="19" spans="1:48">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:47">
       <c r="A19" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
       <c r="C19" t="s">
+        <v>296</v>
+      </c>
+      <c r="D19" t="s">
+        <v>297</v>
+      </c>
+      <c r="E19" t="s">
+        <v>298</v>
+      </c>
+      <c r="F19" t="s">
+        <v>299</v>
+      </c>
+      <c r="G19" t="s">
+        <v>300</v>
+      </c>
+      <c r="H19" t="s">
+        <v>301</v>
+      </c>
+      <c r="I19" t="s">
+        <v>302</v>
+      </c>
+      <c r="J19" t="s">
+        <v>303</v>
+      </c>
+      <c r="K19" t="s">
+        <v>304</v>
+      </c>
+      <c r="L19" t="s">
+        <v>305</v>
+      </c>
+      <c r="M19" t="s">
+        <v>306</v>
+      </c>
+      <c r="N19" t="s">
+        <v>307</v>
+      </c>
+      <c r="O19" t="s">
+        <v>308</v>
+      </c>
+      <c r="P19" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:47">
+      <c r="A20" t="s">
+        <v>295</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>311</v>
+      </c>
+      <c r="D20" t="s">
+        <v>312</v>
+      </c>
+      <c r="E20" t="s">
         <v>313</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F20" t="s">
         <v>314</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G20" t="s">
         <v>315</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H20" t="s">
         <v>316</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I20" t="s">
         <v>317</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J20" t="s">
         <v>318</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K20" t="s">
         <v>319</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L20" t="s">
         <v>320</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M20" t="s">
         <v>321</v>
       </c>
-      <c r="L19" t="s">
+      <c r="N20" t="s">
         <v>322</v>
       </c>
-      <c r="M19" t="s">
+    </row>
+    <row r="21" spans="1:47">
+      <c r="A21" t="s">
         <v>323</v>
-      </c>
-      <c r="N19" t="s">
-        <v>324</v>
-      </c>
-      <c r="O19" t="s">
-        <v>325</v>
-      </c>
-      <c r="P19" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>327</v>
-      </c>
-      <c r="R19" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:48">
-      <c r="A20" t="s">
-        <v>312</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>329</v>
-      </c>
-      <c r="D20" t="s">
-        <v>330</v>
-      </c>
-      <c r="E20" t="s">
-        <v>331</v>
-      </c>
-      <c r="F20" t="s">
-        <v>332</v>
-      </c>
-      <c r="G20" t="s">
-        <v>333</v>
-      </c>
-      <c r="H20" t="s">
-        <v>334</v>
-      </c>
-      <c r="I20" t="s">
-        <v>335</v>
-      </c>
-      <c r="J20" t="s">
-        <v>336</v>
-      </c>
-      <c r="K20" t="s">
-        <v>337</v>
-      </c>
-      <c r="L20" t="s">
-        <v>338</v>
-      </c>
-      <c r="M20" t="s">
-        <v>339</v>
-      </c>
-      <c r="N20" t="s">
-        <v>340</v>
-      </c>
-      <c r="O20" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="21" spans="1:48">
-      <c r="A21" t="s">
-        <v>342</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
       <c r="C21" t="s">
+        <v>324</v>
+      </c>
+      <c r="D21" t="s">
+        <v>325</v>
+      </c>
+      <c r="E21" t="s">
+        <v>326</v>
+      </c>
+      <c r="F21" t="s">
+        <v>327</v>
+      </c>
+      <c r="G21" t="s">
+        <v>328</v>
+      </c>
+      <c r="H21" t="s">
+        <v>329</v>
+      </c>
+      <c r="I21" t="s">
+        <v>330</v>
+      </c>
+      <c r="J21" t="s">
+        <v>331</v>
+      </c>
+      <c r="K21" t="s">
+        <v>332</v>
+      </c>
+      <c r="L21" t="s">
+        <v>333</v>
+      </c>
+      <c r="M21" t="s">
+        <v>334</v>
+      </c>
+      <c r="N21" t="s">
+        <v>335</v>
+      </c>
+      <c r="O21" t="s">
+        <v>336</v>
+      </c>
+      <c r="P21" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>338</v>
+      </c>
+      <c r="R21" t="s">
+        <v>339</v>
+      </c>
+      <c r="S21" t="s">
+        <v>340</v>
+      </c>
+      <c r="T21" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47">
+      <c r="A22" t="s">
+        <v>323</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>342</v>
+      </c>
+      <c r="D22" t="s">
         <v>343</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E22" t="s">
         <v>344</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F22" t="s">
         <v>345</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G22" t="s">
         <v>346</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H22" t="s">
         <v>347</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I22" t="s">
         <v>348</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J22" t="s">
         <v>349</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K22" t="s">
         <v>350</v>
       </c>
-      <c r="K21" t="s">
+    </row>
+    <row r="23" spans="1:47">
+      <c r="A23" t="s">
         <v>351</v>
-      </c>
-      <c r="L21" t="s">
-        <v>352</v>
-      </c>
-      <c r="M21" t="s">
-        <v>353</v>
-      </c>
-      <c r="N21" t="s">
-        <v>354</v>
-      </c>
-      <c r="O21" t="s">
-        <v>355</v>
-      </c>
-      <c r="P21" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>357</v>
-      </c>
-      <c r="R21" t="s">
-        <v>358</v>
-      </c>
-      <c r="S21" t="s">
-        <v>359</v>
-      </c>
-      <c r="T21" t="s">
-        <v>360</v>
-      </c>
-      <c r="U21" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="22" spans="1:48">
-      <c r="A22" t="s">
-        <v>342</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>362</v>
-      </c>
-      <c r="D22" t="s">
-        <v>363</v>
-      </c>
-      <c r="E22" t="s">
-        <v>364</v>
-      </c>
-      <c r="F22" t="s">
-        <v>365</v>
-      </c>
-      <c r="G22" t="s">
-        <v>366</v>
-      </c>
-      <c r="H22" t="s">
-        <v>367</v>
-      </c>
-      <c r="I22" t="s">
-        <v>368</v>
-      </c>
-      <c r="J22" t="s">
-        <v>369</v>
-      </c>
-      <c r="K22" t="s">
-        <v>370</v>
-      </c>
-      <c r="L22" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="23" spans="1:48">
-      <c r="A23" t="s">
-        <v>372</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
       </c>
       <c r="C23" t="s">
+        <v>352</v>
+      </c>
+      <c r="D23" t="s">
+        <v>353</v>
+      </c>
+      <c r="E23" t="s">
+        <v>354</v>
+      </c>
+      <c r="F23" t="s">
+        <v>355</v>
+      </c>
+      <c r="G23" t="s">
+        <v>356</v>
+      </c>
+      <c r="H23" t="s">
+        <v>357</v>
+      </c>
+      <c r="I23" t="s">
+        <v>358</v>
+      </c>
+      <c r="J23" t="s">
+        <v>359</v>
+      </c>
+      <c r="K23" t="s">
+        <v>360</v>
+      </c>
+      <c r="L23" t="s">
+        <v>361</v>
+      </c>
+      <c r="M23" t="s">
+        <v>362</v>
+      </c>
+      <c r="N23" t="s">
+        <v>363</v>
+      </c>
+      <c r="O23" t="s">
+        <v>364</v>
+      </c>
+      <c r="P23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:47">
+      <c r="A24" t="s">
+        <v>351</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>366</v>
+      </c>
+      <c r="D24" t="s">
+        <v>367</v>
+      </c>
+      <c r="E24" t="s">
+        <v>368</v>
+      </c>
+      <c r="F24" t="s">
+        <v>369</v>
+      </c>
+      <c r="G24" t="s">
+        <v>370</v>
+      </c>
+      <c r="H24" t="s">
+        <v>371</v>
+      </c>
+      <c r="I24" t="s">
+        <v>372</v>
+      </c>
+      <c r="J24" t="s">
         <v>373</v>
       </c>
-      <c r="D23" t="s">
+      <c r="K24" t="s">
         <v>374</v>
       </c>
-      <c r="E23" t="s">
+      <c r="L24" t="s">
         <v>375</v>
       </c>
-      <c r="F23" t="s">
+      <c r="M24" t="s">
         <v>376</v>
       </c>
-      <c r="G23" t="s">
+      <c r="N24" t="s">
         <v>377</v>
       </c>
-      <c r="H23" t="s">
+      <c r="O24" t="s">
         <v>378</v>
       </c>
-      <c r="I23" t="s">
+      <c r="P24" t="s">
         <v>379</v>
       </c>
-      <c r="J23" t="s">
+      <c r="Q24" t="s">
         <v>380</v>
       </c>
-      <c r="K23" t="s">
+      <c r="R24" t="s">
         <v>381</v>
       </c>
-      <c r="L23" t="s">
+      <c r="S24" t="s">
         <v>382</v>
       </c>
-      <c r="M23" t="s">
+      <c r="T24" t="s">
         <v>383</v>
       </c>
-      <c r="N23" t="s">
+      <c r="U24" t="s">
         <v>384</v>
       </c>
-      <c r="O23" t="s">
+      <c r="V24" t="s">
         <v>385</v>
       </c>
-      <c r="P23" t="s">
+      <c r="W24" t="s">
         <v>386</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="X24" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="24" spans="1:48">
-      <c r="A24" t="s">
-        <v>372</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="Y24" t="s">
         <v>388</v>
       </c>
-      <c r="D24" t="s">
+      <c r="Z24" t="s">
         <v>389</v>
       </c>
-      <c r="E24" t="s">
+      <c r="AA24" t="s">
         <v>390</v>
       </c>
-      <c r="F24" t="s">
+      <c r="AB24" t="s">
         <v>391</v>
       </c>
-      <c r="G24" t="s">
+      <c r="AC24" t="s">
         <v>392</v>
       </c>
-      <c r="H24" t="s">
+      <c r="AD24" t="s">
         <v>393</v>
       </c>
-      <c r="I24" t="s">
+      <c r="AE24" t="s">
         <v>394</v>
       </c>
-      <c r="J24" t="s">
+      <c r="AF24" t="s">
         <v>395</v>
       </c>
-      <c r="K24" t="s">
+      <c r="AG24" t="s">
         <v>396</v>
       </c>
-      <c r="L24" t="s">
+      <c r="AH24" t="s">
         <v>397</v>
       </c>
-      <c r="M24" t="s">
+      <c r="AI24" t="s">
         <v>398</v>
       </c>
-      <c r="N24" t="s">
+      <c r="AJ24" t="s">
         <v>399</v>
       </c>
-      <c r="O24" t="s">
+      <c r="AK24" t="s">
         <v>400</v>
       </c>
-      <c r="P24" t="s">
+      <c r="AL24" t="s">
         <v>401</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="AM24" t="s">
         <v>402</v>
       </c>
-      <c r="R24" t="s">
+      <c r="AN24" t="s">
         <v>403</v>
       </c>
-      <c r="S24" t="s">
+    </row>
+    <row r="25" spans="1:47">
+      <c r="A25" t="s">
         <v>404</v>
-      </c>
-      <c r="T24" t="s">
-        <v>405</v>
-      </c>
-      <c r="U24" t="s">
-        <v>406</v>
-      </c>
-      <c r="V24" t="s">
-        <v>407</v>
-      </c>
-      <c r="W24" t="s">
-        <v>408</v>
-      </c>
-      <c r="X24" t="s">
-        <v>409</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>410</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>411</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>412</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>413</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>414</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>415</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>416</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>417</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>418</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>419</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>420</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>421</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>422</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>423</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>424</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>425</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="25" spans="1:48">
-      <c r="A25" t="s">
-        <v>427</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
       </c>
       <c r="C25" t="s">
+        <v>405</v>
+      </c>
+      <c r="D25" t="s">
+        <v>406</v>
+      </c>
+      <c r="E25" t="s">
+        <v>407</v>
+      </c>
+      <c r="F25" t="s">
+        <v>408</v>
+      </c>
+      <c r="G25" t="s">
+        <v>409</v>
+      </c>
+      <c r="H25" t="s">
+        <v>410</v>
+      </c>
+      <c r="I25" t="s">
+        <v>411</v>
+      </c>
+      <c r="J25" t="s">
+        <v>412</v>
+      </c>
+      <c r="K25" t="s">
+        <v>413</v>
+      </c>
+      <c r="L25" t="s">
+        <v>414</v>
+      </c>
+      <c r="M25" t="s">
+        <v>415</v>
+      </c>
+      <c r="N25" t="s">
+        <v>416</v>
+      </c>
+      <c r="O25" t="s">
+        <v>417</v>
+      </c>
+      <c r="P25" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>419</v>
+      </c>
+      <c r="R25" t="s">
+        <v>420</v>
+      </c>
+      <c r="S25" t="s">
+        <v>421</v>
+      </c>
+      <c r="T25" t="s">
+        <v>422</v>
+      </c>
+      <c r="U25" t="s">
+        <v>423</v>
+      </c>
+      <c r="V25" t="s">
+        <v>424</v>
+      </c>
+      <c r="W25" t="s">
+        <v>425</v>
+      </c>
+      <c r="X25" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>427</v>
+      </c>
+      <c r="Z25" t="s">
         <v>428</v>
       </c>
-      <c r="D25" t="s">
+      <c r="AA25" t="s">
         <v>429</v>
       </c>
-      <c r="E25" t="s">
+      <c r="AB25" t="s">
         <v>430</v>
       </c>
-      <c r="F25" t="s">
+      <c r="AC25" t="s">
         <v>431</v>
       </c>
-      <c r="G25" t="s">
+    </row>
+    <row r="26" spans="1:47">
+      <c r="A26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
         <v>432</v>
       </c>
-      <c r="H25" t="s">
+      <c r="D26" t="s">
         <v>433</v>
       </c>
-      <c r="I25" t="s">
+      <c r="E26" t="s">
         <v>434</v>
       </c>
-      <c r="J25" t="s">
+      <c r="F26" t="s">
         <v>435</v>
       </c>
-      <c r="K25" t="s">
+      <c r="G26" t="s">
         <v>436</v>
       </c>
-      <c r="L25" t="s">
+      <c r="H26" t="s">
         <v>437</v>
       </c>
-      <c r="M25" t="s">
+      <c r="I26" t="s">
         <v>438</v>
       </c>
-      <c r="N25" t="s">
+      <c r="J26" t="s">
         <v>439</v>
       </c>
-      <c r="O25" t="s">
+      <c r="K26" t="s">
         <v>440</v>
       </c>
-      <c r="P25" t="s">
+      <c r="L26" t="s">
         <v>441</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="M26" t="s">
         <v>442</v>
       </c>
-      <c r="R25" t="s">
+      <c r="N26" t="s">
         <v>443</v>
       </c>
-      <c r="S25" t="s">
+      <c r="O26" t="s">
         <v>444</v>
       </c>
-      <c r="T25" t="s">
+      <c r="P26" t="s">
         <v>445</v>
       </c>
-      <c r="U25" t="s">
+      <c r="Q26" t="s">
         <v>446</v>
       </c>
-      <c r="V25" t="s">
+      <c r="R26" t="s">
         <v>447</v>
       </c>
-      <c r="W25" t="s">
+      <c r="S26" t="s">
         <v>448</v>
       </c>
-      <c r="X25" t="s">
+      <c r="T26" t="s">
         <v>449</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="U26" t="s">
         <v>450</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="V26" t="s">
         <v>451</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="W26" t="s">
         <v>452</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="X26" t="s">
         <v>453</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="Y26" t="s">
         <v>454</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="Z26" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="26" spans="1:48">
-      <c r="A26" t="s">
-        <v>427</v>
-      </c>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="AA26" t="s">
         <v>456</v>
       </c>
-      <c r="D26" t="s">
+      <c r="AB26" t="s">
         <v>457</v>
       </c>
-      <c r="E26" t="s">
+      <c r="AC26" t="s">
         <v>458</v>
       </c>
-      <c r="F26" t="s">
+      <c r="AD26" t="s">
         <v>459</v>
       </c>
-      <c r="G26" t="s">
+      <c r="AE26" t="s">
         <v>460</v>
       </c>
-      <c r="H26" t="s">
+      <c r="AF26" t="s">
         <v>461</v>
       </c>
-      <c r="I26" t="s">
+      <c r="AG26" t="s">
         <v>462</v>
       </c>
-      <c r="J26" t="s">
+      <c r="AH26" t="s">
         <v>463</v>
       </c>
-      <c r="K26" t="s">
+      <c r="AI26" t="s">
         <v>464</v>
       </c>
-      <c r="L26" t="s">
+      <c r="AJ26" t="s">
         <v>465</v>
       </c>
-      <c r="M26" t="s">
+      <c r="AK26" t="s">
         <v>466</v>
       </c>
-      <c r="N26" t="s">
+      <c r="AL26" t="s">
         <v>467</v>
       </c>
-      <c r="O26" t="s">
+      <c r="AM26" t="s">
         <v>468</v>
       </c>
-      <c r="P26" t="s">
+    </row>
+    <row r="27" spans="1:47">
+      <c r="A27" t="s">
         <v>469</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>470</v>
-      </c>
-      <c r="R26" t="s">
-        <v>471</v>
-      </c>
-      <c r="S26" t="s">
-        <v>472</v>
-      </c>
-      <c r="T26" t="s">
-        <v>473</v>
-      </c>
-      <c r="U26" t="s">
-        <v>474</v>
-      </c>
-      <c r="V26" t="s">
-        <v>475</v>
-      </c>
-      <c r="W26" t="s">
-        <v>476</v>
-      </c>
-      <c r="X26" t="s">
-        <v>477</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>478</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>479</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>480</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>481</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>482</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>483</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>484</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>485</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>486</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>487</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>488</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>489</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>490</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>491</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>492</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="27" spans="1:48">
-      <c r="A27" t="s">
-        <v>494</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
       </c>
       <c r="C27" t="s">
+        <v>470</v>
+      </c>
+      <c r="D27" t="s">
+        <v>471</v>
+      </c>
+      <c r="E27" t="s">
+        <v>472</v>
+      </c>
+      <c r="F27" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="28" spans="1:47">
+      <c r="A28" t="s">
+        <v>469</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>474</v>
+      </c>
+      <c r="D28" t="s">
+        <v>475</v>
+      </c>
+      <c r="E28" t="s">
+        <v>476</v>
+      </c>
+      <c r="F28" t="s">
+        <v>477</v>
+      </c>
+      <c r="G28" t="s">
+        <v>478</v>
+      </c>
+      <c r="H28" t="s">
+        <v>479</v>
+      </c>
+      <c r="I28" t="s">
+        <v>480</v>
+      </c>
+      <c r="J28" t="s">
+        <v>481</v>
+      </c>
+      <c r="K28" t="s">
+        <v>482</v>
+      </c>
+      <c r="L28" t="s">
+        <v>483</v>
+      </c>
+      <c r="M28" t="s">
+        <v>484</v>
+      </c>
+      <c r="N28" t="s">
+        <v>485</v>
+      </c>
+      <c r="O28" t="s">
+        <v>486</v>
+      </c>
+      <c r="P28" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>488</v>
+      </c>
+      <c r="R28" t="s">
+        <v>489</v>
+      </c>
+      <c r="S28" t="s">
+        <v>490</v>
+      </c>
+      <c r="T28" t="s">
+        <v>491</v>
+      </c>
+      <c r="U28" t="s">
+        <v>492</v>
+      </c>
+      <c r="V28" t="s">
+        <v>493</v>
+      </c>
+      <c r="W28" t="s">
+        <v>494</v>
+      </c>
+      <c r="X28" t="s">
         <v>495</v>
       </c>
-      <c r="D27" t="s">
+      <c r="Y28" t="s">
         <v>496</v>
       </c>
-      <c r="E27" t="s">
+      <c r="Z28" t="s">
         <v>497</v>
       </c>
-      <c r="F27" t="s">
+      <c r="AA28" t="s">
         <v>498</v>
       </c>
-      <c r="G27" t="s">
+      <c r="AB28" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="28" spans="1:48">
-      <c r="A28" t="s">
-        <v>494</v>
-      </c>
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="AC28" t="s">
         <v>500</v>
       </c>
-      <c r="D28" t="s">
+      <c r="AD28" t="s">
         <v>501</v>
       </c>
-      <c r="E28" t="s">
+      <c r="AE28" t="s">
         <v>502</v>
       </c>
-      <c r="F28" t="s">
+      <c r="AF28" t="s">
         <v>503</v>
       </c>
-      <c r="G28" t="s">
+      <c r="AG28" t="s">
         <v>504</v>
       </c>
-      <c r="H28" t="s">
+      <c r="AH28" t="s">
         <v>505</v>
       </c>
-      <c r="I28" t="s">
+      <c r="AI28" t="s">
         <v>506</v>
       </c>
-      <c r="J28" t="s">
+      <c r="AJ28" t="s">
         <v>507</v>
       </c>
-      <c r="K28" t="s">
+      <c r="AK28" t="s">
         <v>508</v>
       </c>
-      <c r="L28" t="s">
+      <c r="AL28" t="s">
         <v>509</v>
       </c>
-      <c r="M28" t="s">
+      <c r="AM28" t="s">
         <v>510</v>
       </c>
-      <c r="N28" t="s">
+      <c r="AN28" t="s">
         <v>511</v>
       </c>
-      <c r="O28" t="s">
+      <c r="AO28" t="s">
         <v>512</v>
       </c>
-      <c r="P28" t="s">
+      <c r="AP28" t="s">
         <v>513</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="AQ28" t="s">
         <v>514</v>
       </c>
-      <c r="R28" t="s">
+      <c r="AR28" t="s">
         <v>515</v>
       </c>
-      <c r="S28" t="s">
+      <c r="AS28" t="s">
         <v>516</v>
       </c>
-      <c r="T28" t="s">
+      <c r="AT28" t="s">
         <v>517</v>
       </c>
-      <c r="U28" t="s">
+      <c r="AU28" t="s">
         <v>518</v>
       </c>
-      <c r="V28" t="s">
+    </row>
+    <row r="29" spans="1:47">
+      <c r="A29" t="s">
         <v>519</v>
-      </c>
-      <c r="W28" t="s">
-        <v>520</v>
-      </c>
-      <c r="X28" t="s">
-        <v>521</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>522</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>523</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>524</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>525</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>526</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>527</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>528</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>529</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>530</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>531</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>532</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>533</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>534</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>535</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>536</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>537</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>538</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>539</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>540</v>
-      </c>
-      <c r="AR28" t="s">
-        <v>541</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>542</v>
-      </c>
-      <c r="AT28" t="s">
-        <v>543</v>
-      </c>
-      <c r="AU28" t="s">
-        <v>544</v>
-      </c>
-      <c r="AV28" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="29" spans="1:48">
-      <c r="A29" t="s">
-        <v>546</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>520</v>
       </c>
       <c r="D29" t="s">
+        <v>521</v>
+      </c>
+      <c r="E29" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="30" spans="1:47">
+      <c r="A30" t="s">
+        <v>519</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>523</v>
+      </c>
+      <c r="D30" t="s">
+        <v>524</v>
+      </c>
+      <c r="E30" t="s">
+        <v>525</v>
+      </c>
+      <c r="F30" t="s">
+        <v>526</v>
+      </c>
+      <c r="G30" t="s">
+        <v>527</v>
+      </c>
+      <c r="H30" t="s">
+        <v>528</v>
+      </c>
+      <c r="I30" t="s">
+        <v>529</v>
+      </c>
+      <c r="J30" t="s">
+        <v>530</v>
+      </c>
+      <c r="K30" t="s">
+        <v>531</v>
+      </c>
+      <c r="L30" t="s">
+        <v>532</v>
+      </c>
+      <c r="M30" t="s">
+        <v>533</v>
+      </c>
+      <c r="N30" t="s">
+        <v>534</v>
+      </c>
+      <c r="O30" t="s">
+        <v>535</v>
+      </c>
+      <c r="P30" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>537</v>
+      </c>
+      <c r="R30" t="s">
+        <v>538</v>
+      </c>
+      <c r="S30" t="s">
+        <v>539</v>
+      </c>
+      <c r="T30" t="s">
+        <v>540</v>
+      </c>
+      <c r="U30" t="s">
+        <v>541</v>
+      </c>
+      <c r="V30" t="s">
+        <v>542</v>
+      </c>
+      <c r="W30" t="s">
+        <v>543</v>
+      </c>
+      <c r="X30" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>545</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>546</v>
+      </c>
+      <c r="AA30" t="s">
         <v>547</v>
       </c>
-      <c r="E29" t="s">
+      <c r="AB30" t="s">
         <v>548</v>
       </c>
-      <c r="F29" t="s">
+      <c r="AC30" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="30" spans="1:48">
-      <c r="A30" t="s">
-        <v>546</v>
-      </c>
-      <c r="B30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="AD30" t="s">
         <v>550</v>
       </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="31" spans="1:47">
+      <c r="A31" t="s">
         <v>551</v>
-      </c>
-      <c r="E30" t="s">
-        <v>552</v>
-      </c>
-      <c r="F30" t="s">
-        <v>553</v>
-      </c>
-      <c r="G30" t="s">
-        <v>554</v>
-      </c>
-      <c r="H30" t="s">
-        <v>555</v>
-      </c>
-      <c r="I30" t="s">
-        <v>556</v>
-      </c>
-      <c r="J30" t="s">
-        <v>557</v>
-      </c>
-      <c r="K30" t="s">
-        <v>558</v>
-      </c>
-      <c r="L30" t="s">
-        <v>559</v>
-      </c>
-      <c r="M30" t="s">
-        <v>560</v>
-      </c>
-      <c r="N30" t="s">
-        <v>561</v>
-      </c>
-      <c r="O30" t="s">
-        <v>562</v>
-      </c>
-      <c r="P30" t="s">
-        <v>563</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>564</v>
-      </c>
-      <c r="R30" t="s">
-        <v>565</v>
-      </c>
-      <c r="S30" t="s">
-        <v>566</v>
-      </c>
-      <c r="T30" t="s">
-        <v>567</v>
-      </c>
-      <c r="U30" t="s">
-        <v>568</v>
-      </c>
-      <c r="V30" t="s">
-        <v>569</v>
-      </c>
-      <c r="W30" t="s">
-        <v>570</v>
-      </c>
-      <c r="X30" t="s">
-        <v>571</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>572</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>573</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>574</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>575</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>576</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>577</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="31" spans="1:48">
-      <c r="A31" t="s">
-        <v>579</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>580</v>
+        <v>552</v>
       </c>
       <c r="D31" t="s">
-        <v>581</v>
+        <v>553</v>
       </c>
       <c r="E31" t="s">
-        <v>582</v>
+        <v>554</v>
       </c>
       <c r="F31" t="s">
-        <v>583</v>
-      </c>
-      <c r="G31" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="32" spans="1:48">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="32" spans="1:47">
       <c r="A32" t="s">
-        <v>579</v>
+        <v>551</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>585</v>
+        <v>556</v>
       </c>
       <c r="D32" t="s">
-        <v>586</v>
+        <v>557</v>
       </c>
       <c r="E32" t="s">
-        <v>587</v>
+        <v>558</v>
       </c>
       <c r="F32" t="s">
-        <v>588</v>
+        <v>559</v>
       </c>
       <c r="G32" t="s">
-        <v>589</v>
+        <v>560</v>
       </c>
       <c r="H32" t="s">
-        <v>590</v>
+        <v>561</v>
       </c>
       <c r="I32" t="s">
-        <v>591</v>
+        <v>562</v>
       </c>
       <c r="J32" t="s">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="K32" t="s">
-        <v>593</v>
+        <v>564</v>
       </c>
       <c r="L32" t="s">
-        <v>594</v>
+        <v>565</v>
       </c>
       <c r="M32" t="s">
-        <v>595</v>
+        <v>566</v>
       </c>
       <c r="N32" t="s">
-        <v>596</v>
+        <v>567</v>
       </c>
       <c r="O32" t="s">
-        <v>597</v>
+        <v>568</v>
       </c>
       <c r="P32" t="s">
-        <v>598</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" t="s">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" t="s">
-        <v>602</v>
+        <v>572</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" t="s">
-        <v>604</v>
+        <v>574</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>286</v>
+        <v>575</v>
       </c>
       <c r="D35" t="s">
-        <v>605</v>
+        <v>576</v>
       </c>
       <c r="E35" t="s">
-        <v>606</v>
-      </c>
-      <c r="F35" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" t="s">
+        <v>574</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>578</v>
+      </c>
+      <c r="D36" t="s">
+        <v>579</v>
+      </c>
+      <c r="E36" t="s">
+        <v>580</v>
+      </c>
+      <c r="F36" t="s">
+        <v>581</v>
+      </c>
+      <c r="G36" t="s">
+        <v>582</v>
+      </c>
+      <c r="H36" t="s">
+        <v>583</v>
+      </c>
+      <c r="I36" t="s">
+        <v>584</v>
+      </c>
+      <c r="J36" t="s">
+        <v>585</v>
+      </c>
+      <c r="K36" t="s">
+        <v>586</v>
+      </c>
+      <c r="L36" t="s">
+        <v>587</v>
+      </c>
+      <c r="M36" t="s">
+        <v>588</v>
+      </c>
+      <c r="N36" t="s">
+        <v>589</v>
+      </c>
+      <c r="O36" t="s">
+        <v>590</v>
+      </c>
+      <c r="P36" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>592</v>
+      </c>
+      <c r="R36" t="s">
+        <v>593</v>
+      </c>
+      <c r="S36" t="s">
+        <v>594</v>
+      </c>
+      <c r="T36" t="s">
+        <v>595</v>
+      </c>
+      <c r="U36" t="s">
+        <v>596</v>
+      </c>
+      <c r="V36" t="s">
+        <v>597</v>
+      </c>
+      <c r="W36" t="s">
+        <v>598</v>
+      </c>
+      <c r="X36" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>600</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>601</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>602</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37" t="s">
         <v>604</v>
-      </c>
-      <c r="B36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" t="s">
-        <v>608</v>
-      </c>
-      <c r="D36" t="s">
-        <v>609</v>
-      </c>
-      <c r="E36" t="s">
-        <v>610</v>
-      </c>
-      <c r="F36" t="s">
-        <v>611</v>
-      </c>
-      <c r="G36" t="s">
-        <v>612</v>
-      </c>
-      <c r="H36" t="s">
-        <v>613</v>
-      </c>
-      <c r="I36" t="s">
-        <v>614</v>
-      </c>
-      <c r="J36" t="s">
-        <v>615</v>
-      </c>
-      <c r="K36" t="s">
-        <v>616</v>
-      </c>
-      <c r="L36" t="s">
-        <v>617</v>
-      </c>
-      <c r="M36" t="s">
-        <v>618</v>
-      </c>
-      <c r="N36" t="s">
-        <v>619</v>
-      </c>
-      <c r="O36" t="s">
-        <v>620</v>
-      </c>
-      <c r="P36" t="s">
-        <v>621</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>622</v>
-      </c>
-      <c r="R36" t="s">
-        <v>623</v>
-      </c>
-      <c r="S36" t="s">
-        <v>624</v>
-      </c>
-      <c r="T36" t="s">
-        <v>625</v>
-      </c>
-      <c r="U36" t="s">
-        <v>626</v>
-      </c>
-      <c r="V36" t="s">
-        <v>627</v>
-      </c>
-      <c r="W36" t="s">
-        <v>628</v>
-      </c>
-      <c r="X36" t="s">
-        <v>629</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>630</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>631</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>632</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>633</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29">
-      <c r="A37" t="s">
-        <v>635</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" t="s">
-        <v>637</v>
+        <v>606</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" t="s">
-        <v>637</v>
+        <v>606</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
-      </c>
-      <c r="D39" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
-      </c>
-      <c r="D40" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>642</v>
+        <v>611</v>
       </c>
       <c r="D41" t="s">
-        <v>643</v>
+        <v>612</v>
       </c>
       <c r="E41" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="F41" t="s">
-        <v>645</v>
+        <v>614</v>
       </c>
       <c r="G41" t="s">
-        <v>646</v>
+        <v>615</v>
       </c>
       <c r="H41" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="I41" t="s">
-        <v>648</v>
-      </c>
-      <c r="J41" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" t="s">
-        <v>650</v>
+        <v>618</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" t="s">
-        <v>650</v>
+        <v>618</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>652</v>
+        <v>620</v>
       </c>
       <c r="D43" t="s">
-        <v>653</v>
+        <v>621</v>
       </c>
       <c r="E43" t="s">
-        <v>654</v>
+        <v>622</v>
       </c>
       <c r="F43" t="s">
-        <v>655</v>
+        <v>623</v>
       </c>
       <c r="G43" t="s">
-        <v>656</v>
+        <v>624</v>
       </c>
       <c r="H43" t="s">
-        <v>657</v>
+        <v>625</v>
       </c>
       <c r="I43" t="s">
-        <v>658</v>
+        <v>626</v>
       </c>
       <c r="J43" t="s">
-        <v>659</v>
+        <v>627</v>
       </c>
       <c r="K43" t="s">
-        <v>660</v>
+        <v>628</v>
       </c>
       <c r="L43" t="s">
-        <v>661</v>
+        <v>629</v>
       </c>
       <c r="M43" t="s">
-        <v>662</v>
+        <v>630</v>
       </c>
       <c r="N43" t="s">
-        <v>663</v>
+        <v>631</v>
       </c>
       <c r="O43" t="s">
-        <v>664</v>
+        <v>632</v>
       </c>
       <c r="P43" t="s">
-        <v>665</v>
+        <v>633</v>
       </c>
       <c r="Q43" t="s">
-        <v>666</v>
+        <v>634</v>
       </c>
       <c r="R43" t="s">
-        <v>667</v>
-      </c>
-      <c r="S43" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44" t="s">
-        <v>669</v>
+        <v>636</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45" t="s">
-        <v>671</v>
+        <v>638</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
-      </c>
-      <c r="D45" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" t="s">
-        <v>671</v>
+        <v>638</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
-      </c>
-      <c r="D46" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" t="s">
-        <v>674</v>
+        <v>641</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
-      </c>
-      <c r="D47" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48" t="s">
-        <v>674</v>
+        <v>641</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>676</v>
+        <v>643</v>
       </c>
       <c r="D48" t="s">
-        <v>677</v>
+        <v>644</v>
       </c>
       <c r="E48" t="s">
-        <v>678</v>
+        <v>645</v>
       </c>
       <c r="F48" t="s">
-        <v>679</v>
+        <v>646</v>
       </c>
       <c r="G48" t="s">
-        <v>680</v>
+        <v>647</v>
       </c>
       <c r="H48" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="I48" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
       <c r="J48" t="s">
-        <v>683</v>
+        <v>650</v>
       </c>
       <c r="K48" t="s">
-        <v>684</v>
+        <v>651</v>
       </c>
       <c r="L48" t="s">
-        <v>685</v>
+        <v>652</v>
       </c>
       <c r="M48" t="s">
-        <v>686</v>
+        <v>653</v>
       </c>
       <c r="N48" t="s">
-        <v>687</v>
+        <v>654</v>
       </c>
       <c r="O48" t="s">
-        <v>688</v>
+        <v>655</v>
       </c>
       <c r="P48" t="s">
-        <v>689</v>
+        <v>656</v>
       </c>
       <c r="Q48" t="s">
-        <v>690</v>
+        <v>657</v>
       </c>
       <c r="R48" t="s">
-        <v>691</v>
+        <v>658</v>
       </c>
       <c r="S48" t="s">
-        <v>692</v>
+        <v>659</v>
       </c>
       <c r="T48" t="s">
-        <v>693</v>
+        <v>660</v>
       </c>
       <c r="U48" t="s">
-        <v>694</v>
-      </c>
-      <c r="V48" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="49" spans="1:41">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40">
       <c r="A49" t="s">
-        <v>696</v>
+        <v>662</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>114</v>
-      </c>
-      <c r="D49" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="50" spans="1:41">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="50" spans="1:40">
       <c r="A50" t="s">
-        <v>696</v>
+        <v>662</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C50" t="s">
-        <v>698</v>
+        <v>664</v>
       </c>
       <c r="D50" t="s">
-        <v>699</v>
+        <v>665</v>
       </c>
       <c r="E50" t="s">
-        <v>700</v>
+        <v>666</v>
       </c>
       <c r="F50" t="s">
-        <v>701</v>
+        <v>667</v>
       </c>
       <c r="G50" t="s">
-        <v>702</v>
+        <v>668</v>
       </c>
       <c r="H50" t="s">
-        <v>703</v>
+        <v>669</v>
       </c>
       <c r="I50" t="s">
-        <v>704</v>
+        <v>670</v>
       </c>
       <c r="J50" t="s">
-        <v>705</v>
+        <v>671</v>
       </c>
       <c r="K50" t="s">
-        <v>706</v>
+        <v>672</v>
       </c>
       <c r="L50" t="s">
-        <v>707</v>
+        <v>673</v>
       </c>
       <c r="M50" t="s">
-        <v>708</v>
+        <v>674</v>
       </c>
       <c r="N50" t="s">
-        <v>709</v>
+        <v>675</v>
       </c>
       <c r="O50" t="s">
-        <v>710</v>
+        <v>676</v>
       </c>
       <c r="P50" t="s">
-        <v>711</v>
+        <v>677</v>
       </c>
       <c r="Q50" t="s">
-        <v>712</v>
+        <v>678</v>
       </c>
       <c r="R50" t="s">
-        <v>713</v>
+        <v>679</v>
       </c>
       <c r="S50" t="s">
-        <v>714</v>
+        <v>680</v>
       </c>
       <c r="T50" t="s">
-        <v>715</v>
+        <v>681</v>
       </c>
       <c r="U50" t="s">
-        <v>716</v>
+        <v>682</v>
       </c>
       <c r="V50" t="s">
-        <v>717</v>
+        <v>683</v>
       </c>
       <c r="W50" t="s">
-        <v>718</v>
+        <v>684</v>
       </c>
       <c r="X50" t="s">
-        <v>719</v>
+        <v>685</v>
       </c>
       <c r="Y50" t="s">
-        <v>720</v>
+        <v>686</v>
       </c>
       <c r="Z50" t="s">
-        <v>721</v>
+        <v>687</v>
       </c>
       <c r="AA50" t="s">
-        <v>722</v>
+        <v>688</v>
       </c>
       <c r="AB50" t="s">
-        <v>723</v>
-      </c>
-      <c r="AC50" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="51" spans="1:41">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40">
       <c r="A51" t="s">
-        <v>725</v>
+        <v>690</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>114</v>
-      </c>
-      <c r="D51" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="52" spans="1:41">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40">
       <c r="A52" t="s">
-        <v>725</v>
+        <v>690</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C52" t="s">
-        <v>727</v>
+        <v>692</v>
       </c>
       <c r="D52" t="s">
-        <v>728</v>
+        <v>693</v>
       </c>
       <c r="E52" t="s">
-        <v>729</v>
+        <v>694</v>
       </c>
       <c r="F52" t="s">
-        <v>730</v>
+        <v>695</v>
       </c>
       <c r="G52" t="s">
-        <v>731</v>
+        <v>696</v>
       </c>
       <c r="H52" t="s">
-        <v>732</v>
+        <v>697</v>
       </c>
       <c r="I52" t="s">
-        <v>733</v>
+        <v>698</v>
       </c>
       <c r="J52" t="s">
-        <v>734</v>
+        <v>699</v>
       </c>
       <c r="K52" t="s">
-        <v>735</v>
+        <v>700</v>
       </c>
       <c r="L52" t="s">
-        <v>736</v>
+        <v>701</v>
       </c>
       <c r="M52" t="s">
-        <v>737</v>
+        <v>702</v>
       </c>
       <c r="N52" t="s">
-        <v>738</v>
+        <v>703</v>
       </c>
       <c r="O52" t="s">
-        <v>739</v>
+        <v>704</v>
       </c>
       <c r="P52" t="s">
-        <v>740</v>
+        <v>705</v>
       </c>
       <c r="Q52" t="s">
-        <v>741</v>
+        <v>706</v>
       </c>
       <c r="R52" t="s">
-        <v>742</v>
+        <v>707</v>
       </c>
       <c r="S52" t="s">
-        <v>743</v>
+        <v>708</v>
       </c>
       <c r="T52" t="s">
-        <v>744</v>
+        <v>709</v>
       </c>
       <c r="U52" t="s">
-        <v>745</v>
+        <v>710</v>
       </c>
       <c r="V52" t="s">
-        <v>746</v>
+        <v>711</v>
       </c>
       <c r="W52" t="s">
-        <v>747</v>
+        <v>712</v>
       </c>
       <c r="X52" t="s">
-        <v>748</v>
+        <v>713</v>
       </c>
       <c r="Y52" t="s">
-        <v>749</v>
+        <v>714</v>
       </c>
       <c r="Z52" t="s">
-        <v>750</v>
+        <v>715</v>
       </c>
       <c r="AA52" t="s">
-        <v>751</v>
+        <v>716</v>
       </c>
       <c r="AB52" t="s">
-        <v>752</v>
+        <v>717</v>
       </c>
       <c r="AC52" t="s">
-        <v>753</v>
+        <v>718</v>
       </c>
       <c r="AD52" t="s">
-        <v>754</v>
+        <v>719</v>
       </c>
       <c r="AE52" t="s">
-        <v>755</v>
+        <v>720</v>
       </c>
       <c r="AF52" t="s">
-        <v>756</v>
-      </c>
-      <c r="AG52" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="53" spans="1:41">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40">
       <c r="A53" t="s">
-        <v>758</v>
+        <v>722</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="54" spans="1:41">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40">
       <c r="A54" t="s">
-        <v>758</v>
+        <v>722</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C54" t="s">
-        <v>114</v>
-      </c>
-      <c r="D54" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="55" spans="1:41">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40">
       <c r="A55" t="s">
-        <v>761</v>
+        <v>725</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
-      </c>
-      <c r="D55" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="56" spans="1:41">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40">
       <c r="A56" t="s">
-        <v>761</v>
+        <v>725</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>114</v>
-      </c>
-      <c r="D56" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="57" spans="1:41">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40">
       <c r="A57" t="s">
-        <v>764</v>
+        <v>728</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>114</v>
-      </c>
-      <c r="D57" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="58" spans="1:41">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40">
       <c r="A58" t="s">
-        <v>764</v>
+        <v>728</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C58" t="s">
-        <v>766</v>
+        <v>730</v>
       </c>
       <c r="D58" t="s">
-        <v>767</v>
+        <v>731</v>
       </c>
       <c r="E58" t="s">
-        <v>768</v>
+        <v>732</v>
       </c>
       <c r="F58" t="s">
-        <v>769</v>
+        <v>733</v>
       </c>
       <c r="G58" t="s">
-        <v>770</v>
+        <v>734</v>
       </c>
       <c r="H58" t="s">
-        <v>771</v>
+        <v>735</v>
       </c>
       <c r="I58" t="s">
-        <v>772</v>
+        <v>736</v>
       </c>
       <c r="J58" t="s">
-        <v>773</v>
+        <v>737</v>
       </c>
       <c r="K58" t="s">
-        <v>774</v>
+        <v>738</v>
       </c>
       <c r="L58" t="s">
-        <v>775</v>
+        <v>739</v>
       </c>
       <c r="M58" t="s">
-        <v>776</v>
+        <v>740</v>
       </c>
       <c r="N58" t="s">
-        <v>777</v>
+        <v>741</v>
       </c>
       <c r="O58" t="s">
-        <v>778</v>
+        <v>742</v>
       </c>
       <c r="P58" t="s">
-        <v>779</v>
+        <v>743</v>
       </c>
       <c r="Q58" t="s">
-        <v>780</v>
+        <v>744</v>
       </c>
       <c r="R58" t="s">
-        <v>781</v>
+        <v>745</v>
       </c>
       <c r="S58" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="T58" t="s">
-        <v>783</v>
+        <v>747</v>
       </c>
       <c r="U58" t="s">
-        <v>784</v>
+        <v>748</v>
       </c>
       <c r="V58" t="s">
-        <v>785</v>
-      </c>
-      <c r="W58" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="59" spans="1:41">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="59" spans="1:40">
       <c r="A59" t="s">
-        <v>787</v>
+        <v>750</v>
       </c>
       <c r="B59" t="s">
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
-      </c>
-      <c r="D59" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="60" spans="1:41">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="60" spans="1:40">
       <c r="A60" t="s">
-        <v>787</v>
+        <v>750</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>789</v>
+        <v>752</v>
       </c>
       <c r="D60" t="s">
-        <v>790</v>
+        <v>753</v>
       </c>
       <c r="E60" t="s">
-        <v>791</v>
+        <v>754</v>
       </c>
       <c r="F60" t="s">
-        <v>792</v>
+        <v>755</v>
       </c>
       <c r="G60" t="s">
-        <v>793</v>
+        <v>756</v>
       </c>
       <c r="H60" t="s">
-        <v>794</v>
+        <v>757</v>
       </c>
       <c r="I60" t="s">
-        <v>795</v>
+        <v>758</v>
       </c>
       <c r="J60" t="s">
-        <v>796</v>
+        <v>759</v>
       </c>
       <c r="K60" t="s">
-        <v>797</v>
+        <v>760</v>
       </c>
       <c r="L60" t="s">
-        <v>798</v>
+        <v>761</v>
       </c>
       <c r="M60" t="s">
-        <v>799</v>
+        <v>762</v>
       </c>
       <c r="N60" t="s">
-        <v>800</v>
+        <v>763</v>
       </c>
       <c r="O60" t="s">
-        <v>801</v>
+        <v>764</v>
       </c>
       <c r="P60" t="s">
-        <v>802</v>
+        <v>765</v>
       </c>
       <c r="Q60" t="s">
-        <v>803</v>
+        <v>766</v>
       </c>
       <c r="R60" t="s">
-        <v>804</v>
+        <v>767</v>
       </c>
       <c r="S60" t="s">
-        <v>805</v>
+        <v>768</v>
       </c>
       <c r="T60" t="s">
-        <v>806</v>
-      </c>
-      <c r="U60" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="61" spans="1:41">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="61" spans="1:40">
       <c r="A61" t="s">
-        <v>808</v>
+        <v>770</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>114</v>
-      </c>
-      <c r="D61" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="62" spans="1:41">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40">
       <c r="A62" t="s">
-        <v>810</v>
+        <v>772</v>
       </c>
       <c r="B62" t="s">
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>114</v>
-      </c>
-      <c r="D62" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="63" spans="1:40">
+      <c r="A63" t="s">
+        <v>772</v>
+      </c>
+      <c r="B63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" t="s">
+        <v>774</v>
+      </c>
+      <c r="D63" t="s">
+        <v>775</v>
+      </c>
+      <c r="E63" t="s">
+        <v>776</v>
+      </c>
+      <c r="F63" t="s">
+        <v>777</v>
+      </c>
+      <c r="G63" t="s">
+        <v>778</v>
+      </c>
+      <c r="H63" t="s">
+        <v>779</v>
+      </c>
+      <c r="I63" t="s">
+        <v>780</v>
+      </c>
+      <c r="J63" t="s">
+        <v>781</v>
+      </c>
+      <c r="K63" t="s">
+        <v>782</v>
+      </c>
+      <c r="L63" t="s">
+        <v>783</v>
+      </c>
+      <c r="M63" t="s">
+        <v>784</v>
+      </c>
+      <c r="N63" t="s">
+        <v>785</v>
+      </c>
+      <c r="O63" t="s">
+        <v>786</v>
+      </c>
+      <c r="P63" t="s">
+        <v>787</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>788</v>
+      </c>
+      <c r="R63" t="s">
+        <v>789</v>
+      </c>
+      <c r="S63" t="s">
+        <v>790</v>
+      </c>
+      <c r="T63" t="s">
+        <v>791</v>
+      </c>
+      <c r="U63" t="s">
+        <v>792</v>
+      </c>
+      <c r="V63" t="s">
+        <v>793</v>
+      </c>
+      <c r="W63" t="s">
+        <v>794</v>
+      </c>
+      <c r="X63" t="s">
+        <v>795</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>796</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>797</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>798</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>799</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>800</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>801</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>802</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>803</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>804</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>805</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>806</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>807</v>
+      </c>
+      <c r="AK63" t="s">
+        <v>808</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>809</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>810</v>
+      </c>
+      <c r="AN63" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="63" spans="1:41">
-      <c r="A63" t="s">
-        <v>810</v>
-      </c>
-      <c r="B63" t="s">
-        <v>38</v>
-      </c>
-      <c r="C63" t="s">
+    <row r="64" spans="1:40">
+      <c r="A64" t="s">
         <v>812</v>
-      </c>
-      <c r="D63" t="s">
-        <v>813</v>
-      </c>
-      <c r="E63" t="s">
-        <v>814</v>
-      </c>
-      <c r="F63" t="s">
-        <v>815</v>
-      </c>
-      <c r="G63" t="s">
-        <v>816</v>
-      </c>
-      <c r="H63" t="s">
-        <v>817</v>
-      </c>
-      <c r="I63" t="s">
-        <v>818</v>
-      </c>
-      <c r="J63" t="s">
-        <v>819</v>
-      </c>
-      <c r="K63" t="s">
-        <v>820</v>
-      </c>
-      <c r="L63" t="s">
-        <v>821</v>
-      </c>
-      <c r="M63" t="s">
-        <v>822</v>
-      </c>
-      <c r="N63" t="s">
-        <v>823</v>
-      </c>
-      <c r="O63" t="s">
-        <v>824</v>
-      </c>
-      <c r="P63" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>826</v>
-      </c>
-      <c r="R63" t="s">
-        <v>827</v>
-      </c>
-      <c r="S63" t="s">
-        <v>828</v>
-      </c>
-      <c r="T63" t="s">
-        <v>829</v>
-      </c>
-      <c r="U63" t="s">
-        <v>830</v>
-      </c>
-      <c r="V63" t="s">
-        <v>831</v>
-      </c>
-      <c r="W63" t="s">
-        <v>832</v>
-      </c>
-      <c r="X63" t="s">
-        <v>833</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>834</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>835</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>836</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>837</v>
-      </c>
-      <c r="AC63" t="s">
-        <v>838</v>
-      </c>
-      <c r="AD63" t="s">
-        <v>839</v>
-      </c>
-      <c r="AE63" t="s">
-        <v>840</v>
-      </c>
-      <c r="AF63" t="s">
-        <v>841</v>
-      </c>
-      <c r="AG63" t="s">
-        <v>842</v>
-      </c>
-      <c r="AH63" t="s">
-        <v>843</v>
-      </c>
-      <c r="AI63" t="s">
-        <v>844</v>
-      </c>
-      <c r="AJ63" t="s">
-        <v>845</v>
-      </c>
-      <c r="AK63" t="s">
-        <v>846</v>
-      </c>
-      <c r="AL63" t="s">
-        <v>847</v>
-      </c>
-      <c r="AM63" t="s">
-        <v>848</v>
-      </c>
-      <c r="AN63" t="s">
-        <v>849</v>
-      </c>
-      <c r="AO63" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="64" spans="1:41">
-      <c r="A64" t="s">
-        <v>851</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>114</v>
-      </c>
-      <c r="D64" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="65" spans="1:31">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30">
       <c r="A65" t="s">
-        <v>851</v>
+        <v>812</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C65" t="s">
-        <v>853</v>
+        <v>814</v>
       </c>
       <c r="D65" t="s">
-        <v>854</v>
+        <v>815</v>
       </c>
       <c r="E65" t="s">
-        <v>855</v>
+        <v>816</v>
       </c>
       <c r="F65" t="s">
-        <v>856</v>
+        <v>817</v>
       </c>
       <c r="G65" t="s">
-        <v>857</v>
+        <v>818</v>
       </c>
       <c r="H65" t="s">
-        <v>858</v>
+        <v>819</v>
       </c>
       <c r="I65" t="s">
-        <v>859</v>
+        <v>820</v>
       </c>
       <c r="J65" t="s">
-        <v>860</v>
+        <v>821</v>
       </c>
       <c r="K65" t="s">
-        <v>861</v>
+        <v>822</v>
       </c>
       <c r="L65" t="s">
-        <v>862</v>
-      </c>
-      <c r="M65" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="66" spans="1:31">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30">
       <c r="A66" t="s">
-        <v>864</v>
+        <v>824</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>114</v>
-      </c>
-      <c r="D66" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="67" spans="1:31">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30">
       <c r="A67" t="s">
-        <v>866</v>
+        <v>826</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>114</v>
-      </c>
-      <c r="D67" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="68" spans="1:31">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30">
       <c r="A68" t="s">
-        <v>866</v>
+        <v>826</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C68" t="s">
-        <v>868</v>
+        <v>828</v>
       </c>
       <c r="D68" t="s">
-        <v>869</v>
+        <v>829</v>
       </c>
       <c r="E68" t="s">
-        <v>870</v>
+        <v>830</v>
       </c>
       <c r="F68" t="s">
-        <v>871</v>
+        <v>831</v>
       </c>
       <c r="G68" t="s">
-        <v>872</v>
+        <v>832</v>
       </c>
       <c r="H68" t="s">
-        <v>873</v>
+        <v>833</v>
       </c>
       <c r="I68" t="s">
-        <v>874</v>
+        <v>834</v>
       </c>
       <c r="J68" t="s">
-        <v>875</v>
+        <v>835</v>
       </c>
       <c r="K68" t="s">
-        <v>876</v>
+        <v>836</v>
       </c>
       <c r="L68" t="s">
-        <v>877</v>
+        <v>837</v>
       </c>
       <c r="M68" t="s">
-        <v>878</v>
+        <v>838</v>
       </c>
       <c r="N68" t="s">
-        <v>879</v>
+        <v>839</v>
       </c>
       <c r="O68" t="s">
-        <v>880</v>
+        <v>840</v>
       </c>
       <c r="P68" t="s">
-        <v>881</v>
+        <v>841</v>
       </c>
       <c r="Q68" t="s">
-        <v>882</v>
+        <v>842</v>
       </c>
       <c r="R68" t="s">
-        <v>883</v>
+        <v>843</v>
       </c>
       <c r="S68" t="s">
-        <v>884</v>
+        <v>844</v>
       </c>
       <c r="T68" t="s">
-        <v>885</v>
+        <v>845</v>
       </c>
       <c r="U68" t="s">
-        <v>886</v>
+        <v>846</v>
       </c>
       <c r="V68" t="s">
-        <v>887</v>
+        <v>847</v>
       </c>
       <c r="W68" t="s">
-        <v>888</v>
+        <v>848</v>
       </c>
       <c r="X68" t="s">
-        <v>889</v>
+        <v>849</v>
       </c>
       <c r="Y68" t="s">
-        <v>890</v>
-      </c>
-      <c r="Z68" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="69" spans="1:31">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30">
       <c r="A69" t="s">
-        <v>892</v>
+        <v>851</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>114</v>
-      </c>
-      <c r="D69" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="70" spans="1:31">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30">
       <c r="A70" t="s">
-        <v>892</v>
+        <v>851</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C70" t="s">
-        <v>894</v>
+        <v>853</v>
       </c>
       <c r="D70" t="s">
-        <v>895</v>
+        <v>854</v>
       </c>
       <c r="E70" t="s">
-        <v>896</v>
+        <v>855</v>
       </c>
       <c r="F70" t="s">
-        <v>897</v>
+        <v>856</v>
       </c>
       <c r="G70" t="s">
-        <v>898</v>
+        <v>857</v>
       </c>
       <c r="H70" t="s">
-        <v>899</v>
+        <v>858</v>
       </c>
       <c r="I70" t="s">
-        <v>900</v>
+        <v>859</v>
       </c>
       <c r="J70" t="s">
-        <v>901</v>
+        <v>860</v>
       </c>
       <c r="K70" t="s">
-        <v>902</v>
+        <v>861</v>
       </c>
       <c r="L70" t="s">
-        <v>903</v>
+        <v>862</v>
       </c>
       <c r="M70" t="s">
-        <v>904</v>
+        <v>863</v>
       </c>
       <c r="N70" t="s">
-        <v>905</v>
+        <v>864</v>
       </c>
       <c r="O70" t="s">
-        <v>906</v>
+        <v>865</v>
       </c>
       <c r="P70" t="s">
-        <v>907</v>
+        <v>866</v>
       </c>
       <c r="Q70" t="s">
-        <v>908</v>
+        <v>867</v>
       </c>
       <c r="R70" t="s">
-        <v>909</v>
+        <v>868</v>
       </c>
       <c r="S70" t="s">
-        <v>910</v>
+        <v>869</v>
       </c>
       <c r="T70" t="s">
-        <v>911</v>
+        <v>870</v>
       </c>
       <c r="U70" t="s">
-        <v>912</v>
+        <v>871</v>
       </c>
       <c r="V70" t="s">
-        <v>913</v>
+        <v>872</v>
       </c>
       <c r="W70" t="s">
-        <v>914</v>
+        <v>873</v>
       </c>
       <c r="X70" t="s">
-        <v>915</v>
+        <v>874</v>
       </c>
       <c r="Y70" t="s">
-        <v>916</v>
+        <v>875</v>
       </c>
       <c r="Z70" t="s">
-        <v>917</v>
+        <v>876</v>
       </c>
       <c r="AA70" t="s">
-        <v>918</v>
+        <v>877</v>
       </c>
       <c r="AB70" t="s">
-        <v>919</v>
+        <v>878</v>
       </c>
       <c r="AC70" t="s">
-        <v>920</v>
+        <v>879</v>
       </c>
       <c r="AD70" t="s">
-        <v>921</v>
-      </c>
-      <c r="AE70" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="71" spans="1:31">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30">
       <c r="A71" t="s">
-        <v>923</v>
+        <v>881</v>
       </c>
       <c r="B71" t="s">
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>924</v>
+        <v>882</v>
       </c>
       <c r="D71" t="s">
-        <v>925</v>
-      </c>
-      <c r="E71" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="72" spans="1:31">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30">
       <c r="A72" t="s">
-        <v>923</v>
+        <v>881</v>
       </c>
       <c r="B72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C72" t="s">
-        <v>927</v>
+        <v>884</v>
       </c>
       <c r="D72" t="s">
-        <v>928</v>
+        <v>885</v>
       </c>
       <c r="E72" t="s">
-        <v>929</v>
+        <v>886</v>
       </c>
       <c r="F72" t="s">
-        <v>930</v>
+        <v>887</v>
       </c>
       <c r="G72" t="s">
-        <v>931</v>
+        <v>888</v>
       </c>
       <c r="H72" t="s">
-        <v>932</v>
+        <v>889</v>
       </c>
       <c r="I72" t="s">
-        <v>933</v>
+        <v>890</v>
       </c>
       <c r="J72" t="s">
-        <v>934</v>
+        <v>891</v>
       </c>
       <c r="K72" t="s">
-        <v>935</v>
+        <v>892</v>
       </c>
       <c r="L72" t="s">
-        <v>936</v>
+        <v>893</v>
       </c>
       <c r="M72" t="s">
-        <v>937</v>
+        <v>894</v>
       </c>
       <c r="N72" t="s">
-        <v>938</v>
+        <v>895</v>
       </c>
       <c r="O72" t="s">
-        <v>939</v>
+        <v>896</v>
       </c>
       <c r="P72" t="s">
-        <v>940</v>
+        <v>897</v>
       </c>
       <c r="Q72" t="s">
-        <v>941</v>
+        <v>898</v>
       </c>
       <c r="R72" t="s">
-        <v>942</v>
+        <v>899</v>
       </c>
       <c r="S72" t="s">
-        <v>943</v>
+        <v>900</v>
       </c>
       <c r="T72" t="s">
-        <v>944</v>
+        <v>901</v>
       </c>
       <c r="U72" t="s">
-        <v>945</v>
-      </c>
-      <c r="V72" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="73" spans="1:31">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30">
       <c r="A73" t="s">
-        <v>947</v>
+        <v>903</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>114</v>
-      </c>
-      <c r="D73" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="74" spans="1:31">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30">
       <c r="A74" t="s">
-        <v>947</v>
+        <v>903</v>
       </c>
       <c r="B74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C74" t="s">
-        <v>949</v>
+        <v>905</v>
       </c>
       <c r="D74" t="s">
-        <v>950</v>
+        <v>906</v>
       </c>
       <c r="E74" t="s">
-        <v>951</v>
+        <v>907</v>
       </c>
       <c r="F74" t="s">
-        <v>952</v>
+        <v>908</v>
       </c>
       <c r="G74" t="s">
-        <v>953</v>
+        <v>909</v>
       </c>
       <c r="H74" t="s">
-        <v>954</v>
+        <v>910</v>
       </c>
       <c r="I74" t="s">
-        <v>955</v>
+        <v>911</v>
       </c>
       <c r="J74" t="s">
-        <v>956</v>
+        <v>912</v>
       </c>
       <c r="K74" t="s">
-        <v>957</v>
+        <v>913</v>
       </c>
       <c r="L74" t="s">
-        <v>958</v>
+        <v>914</v>
       </c>
       <c r="M74" t="s">
-        <v>959</v>
+        <v>915</v>
       </c>
       <c r="N74" t="s">
-        <v>960</v>
+        <v>916</v>
       </c>
       <c r="O74" t="s">
-        <v>961</v>
+        <v>917</v>
       </c>
       <c r="P74" t="s">
-        <v>962</v>
+        <v>918</v>
       </c>
       <c r="Q74" t="s">
-        <v>963</v>
+        <v>919</v>
       </c>
       <c r="R74" t="s">
-        <v>964</v>
+        <v>920</v>
       </c>
       <c r="S74" t="s">
-        <v>965</v>
+        <v>921</v>
       </c>
       <c r="T74" t="s">
-        <v>966</v>
+        <v>922</v>
       </c>
       <c r="U74" t="s">
-        <v>967</v>
+        <v>923</v>
       </c>
       <c r="V74" t="s">
-        <v>968</v>
+        <v>924</v>
       </c>
       <c r="W74" t="s">
-        <v>969</v>
-      </c>
-      <c r="X74" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="75" spans="1:31">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30">
       <c r="A75" t="s">
-        <v>971</v>
+        <v>926</v>
       </c>
       <c r="B75" t="s">
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>114</v>
-      </c>
-      <c r="D75" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="76" spans="1:31">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30">
       <c r="A76" t="s">
-        <v>973</v>
+        <v>928</v>
       </c>
       <c r="B76" t="s">
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>114</v>
-      </c>
-      <c r="D76" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="77" spans="1:31">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30">
       <c r="A77" t="s">
-        <v>973</v>
+        <v>928</v>
       </c>
       <c r="B77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C77" t="s">
-        <v>975</v>
+        <v>930</v>
       </c>
       <c r="D77" t="s">
-        <v>976</v>
+        <v>931</v>
       </c>
       <c r="E77" t="s">
-        <v>977</v>
+        <v>932</v>
       </c>
       <c r="F77" t="s">
-        <v>978</v>
+        <v>933</v>
       </c>
       <c r="G77" t="s">
-        <v>979</v>
+        <v>934</v>
       </c>
       <c r="H77" t="s">
-        <v>980</v>
+        <v>935</v>
       </c>
       <c r="I77" t="s">
-        <v>981</v>
+        <v>936</v>
       </c>
       <c r="J77" t="s">
-        <v>982</v>
+        <v>937</v>
       </c>
       <c r="K77" t="s">
-        <v>983</v>
+        <v>938</v>
       </c>
       <c r="L77" t="s">
-        <v>984</v>
+        <v>939</v>
       </c>
       <c r="M77" t="s">
-        <v>985</v>
+        <v>940</v>
       </c>
       <c r="N77" t="s">
-        <v>986</v>
+        <v>941</v>
       </c>
       <c r="O77" t="s">
-        <v>987</v>
+        <v>942</v>
       </c>
       <c r="P77" t="s">
-        <v>988</v>
+        <v>943</v>
       </c>
       <c r="Q77" t="s">
-        <v>989</v>
+        <v>944</v>
       </c>
       <c r="R77" t="s">
-        <v>990</v>
+        <v>945</v>
       </c>
       <c r="S77" t="s">
-        <v>991</v>
+        <v>946</v>
       </c>
       <c r="T77" t="s">
-        <v>992</v>
+        <v>947</v>
       </c>
       <c r="U77" t="s">
-        <v>993</v>
-      </c>
-      <c r="V77" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="78" spans="1:31">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30">
       <c r="A78" t="s">
-        <v>995</v>
+        <v>949</v>
       </c>
       <c r="B78" t="s">
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>114</v>
-      </c>
-      <c r="D78" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="79" spans="1:31">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30">
       <c r="A79" t="s">
-        <v>995</v>
+        <v>949</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C79" t="s">
-        <v>997</v>
+        <v>951</v>
       </c>
       <c r="D79" t="s">
-        <v>998</v>
-      </c>
-      <c r="E79" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:31">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30">
       <c r="A80" t="s">
-        <v>1000</v>
+        <v>953</v>
       </c>
       <c r="B80" t="s">
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>114</v>
-      </c>
-      <c r="D80" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20">
       <c r="A81" t="s">
-        <v>1000</v>
+        <v>953</v>
       </c>
       <c r="B81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C81" t="s">
-        <v>1002</v>
+        <v>955</v>
       </c>
       <c r="D81" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E81" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" t="s">
-        <v>1005</v>
+        <v>957</v>
       </c>
       <c r="B82" t="s">
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>114</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
       <c r="A83" t="s">
-        <v>1005</v>
+        <v>957</v>
       </c>
       <c r="B83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C83" t="s">
-        <v>114</v>
-      </c>
-      <c r="D83" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20">
       <c r="A84" t="s">
-        <v>1008</v>
+        <v>960</v>
       </c>
       <c r="B84" t="s">
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>114</v>
-      </c>
-      <c r="D84" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20">
       <c r="A85" t="s">
-        <v>1008</v>
+        <v>960</v>
       </c>
       <c r="B85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C85" t="s">
-        <v>1010</v>
+        <v>962</v>
       </c>
       <c r="D85" t="s">
-        <v>1011</v>
+        <v>963</v>
       </c>
       <c r="E85" t="s">
-        <v>1012</v>
+        <v>964</v>
       </c>
       <c r="F85" t="s">
-        <v>1013</v>
+        <v>965</v>
       </c>
       <c r="G85" t="s">
-        <v>1014</v>
+        <v>966</v>
       </c>
       <c r="H85" t="s">
-        <v>1015</v>
+        <v>967</v>
       </c>
       <c r="I85" t="s">
-        <v>1016</v>
-      </c>
-      <c r="J85" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20">
       <c r="A86" t="s">
-        <v>1018</v>
+        <v>969</v>
       </c>
       <c r="B86" t="s">
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>114</v>
-      </c>
-      <c r="D86" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20">
       <c r="A87" t="s">
-        <v>1018</v>
+        <v>969</v>
       </c>
       <c r="B87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C87" t="s">
-        <v>1020</v>
+        <v>971</v>
       </c>
       <c r="D87" t="s">
-        <v>1021</v>
+        <v>972</v>
       </c>
       <c r="E87" t="s">
-        <v>1022</v>
+        <v>973</v>
       </c>
       <c r="F87" t="s">
-        <v>1023</v>
+        <v>974</v>
       </c>
       <c r="G87" t="s">
-        <v>1024</v>
+        <v>975</v>
       </c>
       <c r="H87" t="s">
-        <v>1025</v>
+        <v>976</v>
       </c>
       <c r="I87" t="s">
-        <v>1026</v>
+        <v>977</v>
       </c>
       <c r="J87" t="s">
-        <v>1027</v>
+        <v>978</v>
       </c>
       <c r="K87" t="s">
-        <v>1028</v>
+        <v>979</v>
       </c>
       <c r="L87" t="s">
-        <v>1029</v>
+        <v>980</v>
       </c>
       <c r="M87" t="s">
-        <v>1030</v>
+        <v>981</v>
       </c>
       <c r="N87" t="s">
-        <v>1031</v>
+        <v>982</v>
       </c>
       <c r="O87" t="s">
-        <v>1032</v>
+        <v>983</v>
       </c>
       <c r="P87" t="s">
-        <v>1033</v>
+        <v>984</v>
       </c>
       <c r="Q87" t="s">
-        <v>1034</v>
+        <v>985</v>
       </c>
       <c r="R87" t="s">
-        <v>1035</v>
+        <v>986</v>
       </c>
       <c r="S87" t="s">
-        <v>1036</v>
+        <v>987</v>
       </c>
       <c r="T87" t="s">
-        <v>1037</v>
-      </c>
-      <c r="U87" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20">
       <c r="A88" t="s">
-        <v>1039</v>
+        <v>989</v>
       </c>
       <c r="B88" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C88" t="s">
-        <v>114</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1040</v>
+        <v>990</v>
       </c>
     </row>
   </sheetData>
